--- a/biology/Botanique/Maurice_Talvande/Maurice_Talvande.xlsx
+++ b/biology/Botanique/Maurice_Talvande/Maurice_Talvande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Talvande, dit le comte de Mauny Talvande, est un homme d'affaires, concepteur de jardin, ébéniste, inventeur et écrivain britannique d'origine française né le 21 mars 1866 au Mans et mort le 27 novembre 1941 à Navatkuli (en) (Sri Lanka).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une famille de Nantes, Maurice Talvande est le fils du banquier Félix Talvande, directeur de la succursale de la Banque de France au Mans, et de Marguerite Froger de Mauny, ainsi que le petit-neveu d'Alexis Talvande et d'Alphonse Lavallée.
 Il fréquente une école jésuite à Canterbury, en Angleterre. Jeune homme, décrit comme « plutôt beau », il voyage en Amérique et en Angleterre où, ayant pris le nom à consonance plus aristocratique de Maurice de Mauny Talvande, il gagne un peu d'argent en donnant des conférences de salon sur les châteaux français. En 1897, il prononce également un discours dans lequel il promeut la création de colonies pour les jeunes hommes démunis et rebelles.
@@ -557,7 +571,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Peace of Suffering 1914-1918, Grant and Richards, London, 1919.
 Gardening in Ceylon, Henry William Cave (en), 1921.
